--- a/jl2286716/Isshinryu_Rewrite/Form_Outline.xlsx
+++ b/jl2286716/Isshinryu_Rewrite/Form_Outline.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\College\CIS-CAT\CIS-14A Web Programming with JavaScript\~Projects~\Isshinryu_Rewrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcc\Desktop\CIS14a\jl2286716\Isshinryu_Rewrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Contact_Form" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="age_level">Sheet2!$H$2:$H$3</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="182">
   <si>
     <t>First Name</t>
   </si>
@@ -1266,6 +1267,9 @@
   </si>
   <si>
     <t xml:space="preserve">Relation: </t>
+  </si>
+  <si>
+    <t>Jus' foolin' 'round!</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -3165,4 +3169,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>